--- a/ValueSet-my-vs.xlsx
+++ b/ValueSet-my-vs.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T17:27:06+00:00</t>
+    <t>2023-06-12T12:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -212,10 +212,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-my-vs.xlsx
+++ b/ValueSet-my-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T12:03:44+00:00</t>
+    <t>2023-06-22T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-my-vs.xlsx
+++ b/ValueSet-my-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T10:40:10+00:00</t>
+    <t>2023-06-22T11:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-my-vs.xlsx
+++ b/ValueSet-my-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:40:33+00:00</t>
+    <t>2023-09-10T21:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-my-vs.xlsx
+++ b/ValueSet-my-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-10T21:33:21+00:00</t>
+    <t>2024-03-26T13:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
